--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H2">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N2">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q2">
-        <v>0.06803000153877778</v>
+        <v>0.008582600883333333</v>
       </c>
       <c r="R2">
-        <v>0.6122700138489999</v>
+        <v>0.07724340795</v>
       </c>
       <c r="S2">
-        <v>0.000489574337370218</v>
+        <v>6.050055508334261E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004895743373702181</v>
+        <v>6.050055508334261E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H3">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P3">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q3">
-        <v>4.089632441304222</v>
+        <v>0.6817531159177778</v>
       </c>
       <c r="R3">
-        <v>36.806691971738</v>
+        <v>6.13577804326</v>
       </c>
       <c r="S3">
-        <v>0.02943082533076233</v>
+        <v>0.004805820811605138</v>
       </c>
       <c r="T3">
-        <v>0.02943082533076234</v>
+        <v>0.004805820811605138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H4">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N4">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q4">
-        <v>0.6848180199221111</v>
+        <v>0.3530273705066667</v>
       </c>
       <c r="R4">
-        <v>6.163362179299</v>
+        <v>3.17724633456</v>
       </c>
       <c r="S4">
-        <v>0.004928256956328973</v>
+        <v>0.002488564033863238</v>
       </c>
       <c r="T4">
-        <v>0.004928256956328974</v>
+        <v>0.002488564033863238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H5">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N5">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q5">
-        <v>0.001363910370333334</v>
+        <v>0.001617153715555556</v>
       </c>
       <c r="R5">
-        <v>0.012275193333</v>
+        <v>0.01455438344</v>
       </c>
       <c r="S5">
-        <v>9.81530943237881E-06</v>
+        <v>1.139965597563733E-05</v>
       </c>
       <c r="T5">
-        <v>9.81530943237881E-06</v>
+        <v>1.139965597563733E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
         <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N6">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q6">
-        <v>1.392279704952333</v>
+        <v>1.053663836135</v>
       </c>
       <c r="R6">
-        <v>12.530517344571</v>
+        <v>9.482974525214999</v>
       </c>
       <c r="S6">
-        <v>0.01001946786077182</v>
+        <v>0.007427497541124541</v>
       </c>
       <c r="T6">
-        <v>0.01001946786077182</v>
+        <v>0.007427497541124541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
         <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>74.544746</v>
       </c>
       <c r="O7">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P7">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q7">
-        <v>83.69707658314468</v>
+        <v>83.69707658314466</v>
       </c>
       <c r="R7">
-        <v>753.2736892483022</v>
+        <v>753.273689248302</v>
       </c>
       <c r="S7">
-        <v>0.6023216210668576</v>
+        <v>0.589998260546706</v>
       </c>
       <c r="T7">
-        <v>0.6023216210668576</v>
+        <v>0.589998260546706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
         <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N8">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q8">
-        <v>14.01526104890234</v>
+        <v>43.340262296368</v>
       </c>
       <c r="R8">
-        <v>126.137349440121</v>
+        <v>390.062360667312</v>
       </c>
       <c r="S8">
-        <v>0.100860090928792</v>
+        <v>0.3055146058906036</v>
       </c>
       <c r="T8">
-        <v>0.100860090928792</v>
+        <v>0.3055146058906036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
         <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N9">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q9">
-        <v>0.02791334242300001</v>
+        <v>0.1985338023653333</v>
       </c>
       <c r="R9">
-        <v>0.2512200818070001</v>
+        <v>1.786804221288</v>
       </c>
       <c r="S9">
-        <v>0.0002008769044748392</v>
+        <v>0.001399506444396641</v>
       </c>
       <c r="T9">
-        <v>0.0002008769044748392</v>
+        <v>0.001399506444396641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H10">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N10">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q10">
-        <v>0.4912962522494445</v>
+        <v>0.1028728622583333</v>
       </c>
       <c r="R10">
-        <v>4.421666270245</v>
+        <v>0.9258557603249999</v>
       </c>
       <c r="S10">
-        <v>0.003535587706997052</v>
+        <v>0.0007251723986988163</v>
       </c>
       <c r="T10">
-        <v>0.003535587706997052</v>
+        <v>0.0007251723986988163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H11">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>74.544746</v>
       </c>
       <c r="O11">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P11">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q11">
-        <v>29.53433846896555</v>
+        <v>8.171636470267778</v>
       </c>
       <c r="R11">
-        <v>265.80904622069</v>
+        <v>73.54472823240999</v>
       </c>
       <c r="S11">
-        <v>0.2125423174857586</v>
+        <v>0.05760358067570715</v>
       </c>
       <c r="T11">
-        <v>0.2125423174857586</v>
+        <v>0.05760358067570715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H12">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N12">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q12">
-        <v>4.945590460832777</v>
+        <v>4.231460434106667</v>
       </c>
       <c r="R12">
-        <v>44.510314147495</v>
+        <v>38.08314390696</v>
       </c>
       <c r="S12">
-        <v>0.03559068231663277</v>
+        <v>0.02982845276818081</v>
       </c>
       <c r="T12">
-        <v>0.03559068231663277</v>
+        <v>0.02982845276818081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H13">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N13">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q13">
-        <v>0.009849831518333334</v>
+        <v>0.01938354511555556</v>
       </c>
       <c r="R13">
-        <v>0.088648483665</v>
+        <v>0.17445190604</v>
       </c>
       <c r="S13">
-        <v>7.088379582128355E-05</v>
+        <v>0.0001366386780552078</v>
       </c>
       <c r="T13">
-        <v>7.088379582128355E-05</v>
+        <v>0.0001366386780552078</v>
       </c>
     </row>
   </sheetData>
